--- a/history.xlsx
+++ b/history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2577,6 +2577,7142 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 13:00:32 +0000</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>US dollar isn't behaving like a safe haven asset: FX strategist</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/us-dollar-isnt-behaving-safe-130032041.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:10:00 +0000</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nasdaq, S&amp;P 500, Dow fall after Trump threatens new tariffs</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nasdaq-p-500-dow-fall-201000536.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:06:39 +0000</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Stocks, dollar stumble after Trump reignites his trade war</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2025/05/23/investing/dow-stock-market-tariffs-trade-war?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:53:35 +0000</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tariff Threats Halt the Rise in Bond Yields</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/f4837853-1367-3dbd-8f5b-2487e01f37cc/tariff-threats-halt-the-rise.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:35:49 +0000</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Stocks Start Friday in the Red After Trump Tariff News</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/3642a971-1ff2-3221-83b7-00577df8e2e9/stocks-start-friday-in-the.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 12:40:00 +0000</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Gold Eyes Best Week in a Month: Will ETFs Sustain the Rally?</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/gold-eyes-best-week-month-124000379.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 09:32:50 +0000</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Oil on track for weekly loss amid potential output hike and US-Iran nuclear talks</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/oil-prices-opec-us-iran-nuclear-gold-pound-093250218.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 20:03:00 +0000</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Nasdaq Ekes Out a Gain as Bond Yields Retreat</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/643da580-b140-3782-a102-9815aefc092c/nasdaq-ekes-out-a-gain-as.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 19:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>This chart shows why investors should be worried about the latest bond-market selloff</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/this-chart-shows-why-investors-should-be-worried-about-the-latest-bond-market-selloff-115b473b?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 13:20:17 +0000</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The dollar could lose its crown as an 'unfortunate truth' forces investors to rethink US assets</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/the-dollar-could-lose-its-crown-as-an-unfortunate-truth-forces-investors-to-rethink-us-assets-132017610.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 09:48:09 +0000</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Oil prices fall amid US debt concerns and prospect of increased supply</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/oil-prices-opec-us-debt-pound-gold-094809202.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 20:46:37 +0000</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bridgewater reveals its top buys and sells of Q1 in latest filing</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/bridgewater-reveals-top-buys-sells-204637794.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 12:00:18 +0000</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Gold &amp; the Fed: Investing in the metal amid rate cut hopes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/gold-fed-investing-metal-amid-120018810.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 10:53:00 +0000</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3 ETF Strategies to Follow on Temporary U.S.-China Trade Deal</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/3-etf-strategies-temporary-u-105300287.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Wed, 07 May 2025 12:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Oil, Gold ETFs Rise on Commodity Resurgence</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/news/oil-gold-etfs-invest-commodity?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Wed, 09 Apr 2025 21:00:07 +0000</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>QQQ Sees $4.2 Billion Exodus as Tech Stocks Whipsaw</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/daily-etf-flows/qqq-sees-42-billion-exodus-tech-stocks-whipsaw?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Wed, 12 Mar 2025 21:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Stock ETFs Waver as Investors Weigh CPI Data, Tariffs</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/news/stock-etfs-waver-investors-weigh-cpi-data-tariffs?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tue, 08 Oct 2024 12:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Corporate Bond ETFs: The Complete Guide</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/etf-basics/corporate-bond-etfs-complete-guide?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mon, 02 Sep 2024 19:45:59 +0000</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Weekly Flows Totaled $13.2B Last Week</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/weekly-etf-flows/weekly-flows-totaled-132b-last-week?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mon, 15 Jul 2024 12:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>September Rate Cuts Satisfy Neither Bond Bulls nor Bears</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/news/september-rate-cuts-satisfy-neither-bond-bulls-nor-bears?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 13:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Trump’s new tariff threats show trade uncertainty here to stay</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-tariff-threats-show-trade-130000997.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 12:03:46 +0000</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Exclusive-Nvidia to launch cheaper Blackwell AI chip for China after US export curbs, sources say</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/exclusive-nvidia-launch-cheaper-blackwell-120346976.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 12:03:46 +0000</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Nvidia to launch cheaper Blackwell AI chip for China after US export curbs, sources say</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/exclusive-nvidia-launch-cheaper-blackwell-120346162.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:59:21 +0000</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Nvidia earnings: Options plays ahead of the results</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nvidia-earnings-options-plays-ahead-115921970.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:30:58 +0000</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Tesla Vs. BYD: TSLA Sets Up New Buy Point While Rival Keeps Running</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/29c92e28-b5ab-392e-8f22-ae525864f9e8/tesla-vs.-byd%3A-tsla-sets-up.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:20:53 +0000</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Nvidia CEO calls Trump re-industrialisation policies 'visionary'</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nvidia-ceo-calls-trump-industrialisation-112053283.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:20:53 +0000</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Nvidia CEO calls Trump re-industrialization policies 'visionary'</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nvidia-ceo-calls-trump-industrialisation-112053730.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bitcoin's new high, bonds go bananas, and Coinbase joins the S&amp;P 500: Markets news roundup</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/bitcoins-high-bonds-bananas-coinbase-110000834.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 11:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Is Intel Corp Stock a Buy?</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/intel-corp-stock-buy-intc/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 10:08:55 +0000</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The Weekend: A blow to the US economy takes the shine off a UK-EU trade deal</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/weekend-us-credit-downgrade-uk-eu-trade-deal-100855218.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 09:45:00 +0000</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Warren Buffett's Successor Would Love to Buy 5X More of These Stocks. Here's Why They're Good Picks for Other Investors, Too.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/warren-buffetts-successor-would-love-to-buy-5x-mor/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 09:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Angry Elon Is Back. That’s Good for Tesla.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/36652488-b078-303b-93bf-08bd4a0a944f/angry-elon-is-back.-that%E2%80%99s.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 09:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>What Analysts Think of Nvidia Stock Ahead of Earnings</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.investopedia.com/what-analysts-think-of-nvidia-stock-ahead-of-earnings-11740324?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 08:40:00 +0000</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Building a Long-Term Portfolio: 3 Vanguard ETFs to Consider</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/building-long-term-portfolio-vanguard-etf-voo/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 08:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>These 3 Artificial Intelligence (AI) Stocks Look Cheap Right Now</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/artificial-intelligence-ai-stocks-look-cheap/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 08:10:00 +0000</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Billionaire Philippe Laffont Just Sold Shares of Nvidia and 2 Other AI Powerhouses and Bought Shares of This Nvidia-Backed Company</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/billionaire-philippe-laffont-just-sold-shares-of-n/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 08:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Bitcoin New All-Time High: If History Is Any Guide, This Happens Next</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/bitcoin-new-all-time-high-if-history-is-any-guide/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 07:05:00 +0000</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Billionaire CEO Jamie Dimon Says America Is Still the Best Place to Invest: 2 U.S. Stocks to Buy Now</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/24/dimon-america-best-place-invest-2-us-stocks-buy/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 06:19:22 +0000</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>From Tesla to forests: what Nest does with 13m UK savers’ pension cash</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/tesla-forests-nest-does-13m-061922469.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 04:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AP Top Financial News at 8:07 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ap-top-financial-news-8-040000397.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 03:31:26 +0000</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Apple Faces 'First Serious Threat In 20 Years' As OpenAI Acquires iPhone Maker's Former Design Chief Jony Ive's Hardware Startup, Says Gene Munster</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/apple-faces-first-serious-threat-033126066.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sat, 24 May 2025 02:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Tim Cook’s Bad Year Keeps Getting Worse</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/7ac54d0d-9089-37dc-814b-d2c5a038d8a2/tim-cook%E2%80%99s-bad-year-keeps.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 23:00:36 +0000</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Nvidia earnings, Fed Chair Powell, April PCE: What to Watch</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nvidia-earnings-fed-chair-powell-230036154.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 22:48:00 +0000</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Taking Stock of the Earnings Picture</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/taking-stock-earnings-picture-224800249.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 22:31:28 +0000</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Elon Musk's Tesla holds billions in uncommon asset</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.thestreet.com/crypto/markets/musks-tesla-holds-1-25b-thanks-to-this-asset?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 22:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>When bond yields are lower, stocks are higher: What to know</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/bond-yields-lower-stocks-higher-223000615.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 22:00:03 +0000</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Here's Why United Airlines (UAL) Fell More Than Broader Market</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/heres-why-united-airlines-ual-220003525.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 22:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Why retail investors still have a 'buy-the-dip mentality'</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/why-retail-investors-still-buy-220000618.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:51:00 +0000</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>The Stock Market Had a Bad Week. It’s Your Fault.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/dbaf26a3-7777-36ea-8408-dd37ea589146/the-stock-market-had-a-bad.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:50:06 +0000</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Intuitive Surgical, Inc. (ISRG) Stock Moves -0.58%: What You Should Know</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/intuitive-surgical-inc-isrg-stock-215006228.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:50:06 +0000</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Seanergy Maritime Holdings Corp (SHIP) Gains As Market Dips: What You Should Know</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/seanergy-maritime-holdings-corp-ship-215006287.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:45:11 +0000</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Trump to sign executive order boosting nuclear power use, Reuters says</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-sign-executive-order-boosting-214511761.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:45:05 +0000</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UnitedHealth Group (UNH) Stock Moves -0.37%: What You Should Know</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/unitedhealth-group-unh-stock-moves-214505220.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:40:00 +0000</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Tim Cook Called Texas Governor to Stop Online Child-Safety Legislation</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/0cd54136-318b-3f15-bf6a-d2452dd47234/tim-cook-called-texas.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:31:17 +0000</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Elon Musk Wants The US Government To Hang Up The Phone: 'Government Is Wasting About $100 Million Per Year On Unused Phone Lines'</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/elon-musk-wants-us-government-213117380.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:20:30 +0000</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Tesla (TSLA)’s Next Big Catalyst? Piper Points to Austin Robo-Taxi Launch</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tesla-tsla-next-big-catalyst-212030328.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:19:53 +0000</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Why Evercore Is Even More Bullish on Microsoft (MSFT) After Its 360 Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-evercore-even-more-bullish-211953076.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Trading week, Treasury yields, gold &amp; bitcoin: Market Takeaways</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/trading-week-treasury-yields-gold-211500814.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Trump Threatens Fresh Tariffs on EU, iPhones and Rival Devices</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/9ce955d7-df9d-361a-b1cb-9ce315031d62/trump-threatens-fresh-tariffs.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 21:00:40 +0000</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Why stock &amp; bond markets aren't celebrating Trump's tax bill</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/why-stock-bond-markets-arent-210040638.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:59:53 +0000</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Wall Street Declines After Trump's Fresh Tariff Threats; Apple Falls 3%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/wall-street-declines-trump-apos-205953834.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:59:23 +0000</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Trump Threatens EU, Smartphones as Tariff Rhetoric Escalates</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-broadens-tariff-threats-against-183640332.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:56:02 +0000</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Trump Targets Samsung, Apple Phones With 25% Tariff Threat</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-targets-samsung-apple-phones-205602225.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:50:50 +0000</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>US Equity Indexes Fall in Week on Treasury Market Jitters, Trump Warnings to EU, Apple</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/us-equity-indexes-fall-week-205050628.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:36:15 +0000</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Palantir Sees $114 Million Insider Sales At Peak Levels</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-sees-114-million-insider-203615353.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:30:31 +0000</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Tesla Bull Dan Ives Thinks Elon Musk's EV Giant Could Be Entering A 'Golden Era,' Says 2 Trillion Market Cap 'On The Table'</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tesla-bull-dan-ives-thinks-203031519.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:27:00 +0000</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Tesla Stock Drops as Trump Tariff Threats Take Focus Off Magical Thinking</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/2d2a5058-d704-3859-b4d2-ad7ffbcd5fba/tesla-stock-drops-as-trump.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:16:16 +0000</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>How major US stock indexes fared Friday, 5/23/2025</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/major-us-stock-indexes-fared-201616026.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:16:00 +0000</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>These Stocks Moved the Most Today: Apple, Tesla, Intuit, Oklo, Deckers, Workday, Ross Stores, Booz Allen, and More</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/c90cf75e-cce9-3efb-a1cb-07810b75f4b6/these-stocks-moved-the-most.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:06:44 +0000</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Microsoft Stock Earns Bullish Notes On AI Agents</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/aa85f142-9a09-36ce-a49e-3cfccd0aeeba/microsoft-stock-earns-bullish.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:00:55 +0000</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Stock market today: Dow, S&amp;P 500, Nasdaq fall as Trump tariff threats roar back, US deficit anxiety deepens</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/live/stock-market-today-dow-sp-500-nasdaq-fall-as-trump-tariff-threats-roar-back-us-deficit-anxiety-deepens-200055672.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:00:23 +0000</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Alphabet Co-Founder Returns To Spearhead AI Innovations in Gemini</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/alphabet-co-founder-returns-spearhead-200023066.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 20:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Top Funds Have Designs On This Nvidia-Powered Long-Term Leader</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/28efda51-abef-377c-995e-664c14bf6bb9/top-funds-have-designs-on.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 19:58:51 +0000</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>AI Is Helping Alphabet (GOOG)’s Customers, According to an Investment Bank</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ai-helping-alphabet-goog-customers-195851715.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 19:53:30 +0000</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Nuclear rally, Deckers Outdoor, Intuit gains: Trending Tickers</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nuclear-rally-deckers-outdoor-intuit-195330148.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 19:47:50 +0000</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Tesla (TSLA) Gets Street-High $500 Price Target as Wedbush Touts $1T AI Upside</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tesla-tsla-gets-street-high-194750023.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 19:18:44 +0000</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Marvell Technology Set for Upside in Q1 Results on AI Demand, Oppenheimer Says</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/marvell-technology-set-upside-q1-191844019.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 18:45:00 +0000</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>FTC drops final challenge to Microsoft’s $69B Activision Blizzard deal</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.fastcompany.com/91340327/ftc-drops-final-challenge-to-microsofts-69b-activision-blizzard-deal?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 18:10:06 +0000</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Trump's Fresh Tariff Threats Weigh on Equities Intraday</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-apos-fresh-tariff-threats-181006431.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 18:00:51 +0000</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Fake Books, Real Deception: How AI-Generated Summer Reading List Fooled Google, Readers</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/fake-books-real-deception-ai-180051149.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 18:00:40 +0000</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Palantir Secures $795M US Army Modification Contract</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-secures-795m-us-army-180040461.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 18:00:19 +0000</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Alphabet Unveils New AI Feature to Fend Off Competition on Search</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/alphabet-unveils-ai-feature-fend-180019256.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:21:20 +0000</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Palantir Eyes $140 On $1.3 Billion Army Deal</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-eyes-140-1-3-172120437.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:20:00 +0000</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Palantir Is a Top Stock to Own With AI Company Set to Gain ‘Unprecedented Traction.’</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/29aa5150-b7e8-3ea5-8665-81b54d872aa0/palantir-is-a-top-stock-to.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:18:00 +0000</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Microsoft just took the next big step in the AI race, Deutsche Bank says</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/microsoft-just-took-next-big-171800302.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:05:01 +0000</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Palantir Evades DOGE Fallout As Federal Contractor Booz Allen Hammered</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/eacc345e-7016-35f1-bd4d-3d593fc1b41c/palantir-evades-doge-fallout.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:03:35 +0000</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Palantir Expands Enterprise Reach with SAP SE Deal</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-expands-enterprise-reach-sap-170335732.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:00:03 +0000</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Microsoft says its Aurora AI can accurately predict air quality, typhoons, and more</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://techcrunch.com/2025/05/23/microsoft-says-its-aurora-ai-can-accurately-predict-air-quality-typhoons-and-more/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 17:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>U.S. Stocks Rebound Sharply in May: Can the Rally Continue?</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/u-stocks-rebound-sharply-may-170000606.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:55:58 +0000</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Update: Wedbush Ups Price Target on Tesla to $500 From $350 Highlighting Key Launch in June, Maintains Outperform Rating</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/wedbush-ups-price-target-tesla-165558481.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:49:42 +0000</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Magnificent Seven Stocks: Apple Extends Losing Streak; Nvidia, Tesla Slide</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/4205eaa9-f620-3a0b-a81a-0e82c7c9fd0b/magnificent-seven-stocks%3A.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:44:00 +0000</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Google Struck Gold With Search. Now It’s Time to Move On.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/db5912c2-afab-3d3d-9001-60d6b6da8b18/google-struck-gold-with.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:42:56 +0000</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Elon Musk to Nvidia Rescue With Massive GPU Orders</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/elon-musk-nvidia-rescue-massive-164256104.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:39:08 +0000</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>FTC abandons Biden-era effort to block Microsoft's acquisition of Activision Blizzard</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ftc-abandons-biden-era-effort-163908977.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:21:00 +0000</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>U.S. Treasuries Might Be Wildly Undervalued. Here’s an Example.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/3f0b20c4-8e5d-322d-b213-db050e994693/u.s.-treasuries-might-be.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:21:00 +0000</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Should You Hold on to RDDT Despite the Stock's 39% YTD Decline?</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/hold-rddt-despite-stocks-39-162100260.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 16:13:07 +0000</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Why it's important to 'remain consistent' with how you invest</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/why-important-remain-consistent-invest-161307931.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 15:40:27 +0000</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Big Tech's spending drove Nvidia's rise</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/big-techs-spending-drove-nvidias-rise-154027146.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 15:38:58 +0000</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Bond market sell-off: Rethinking the 60/40 portfolio</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/bond-market-sell-off-rethinking-153858431.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 15:24:24 +0000</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Battle for AI dominance: OpenAI's moves target Apple &amp; Google</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/battle-ai-dominance-openais-moves-152424989.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 15:17:51 +0000</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Carbon Direct and Microsoft issue criteria for EACs in concrete and steel sectors</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.worldconstructionnetwork.com/news/carbon-direct-microsoft-eacs-concrete-steel-sectors/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 15:00:45 +0000</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>US DOJ probing Google over Character.AI deal</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.verdict.co.uk/us-doj-google-character-ai/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:53:59 +0000</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>ChatGPT: Everything you need to know about the AI-powered chatbot</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://techcrunch.com/2025/05/23/chatgpt-everything-to-know-about-the-ai-chatbot/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:45:23 +0000</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Palantir (PLTR) Insider Dumps Shares After Blockbuster Q1 Report</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-pltr-insider-dumps-shares-144523169.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:45:00 +0000</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Nano Nuclear Energy founder talks expected Trump exec. orders</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nano-nuclear-energy-founder-talks-144500785.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:40:22 +0000</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Trump Team Split on Venezuela Policy Puts Chevron in Limbo</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-team-split-venezuela-policy-144022979.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 14:40:07 +0000</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>TSX closes mixed amid more Trump trade turmoil</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/tsx-opens-lower-amid-more-144007947.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:51:26 +0000</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Palantir's 'Unique' AI Strategy a Growth Catalyst as Company Poised to Win More US Government Contracts, Wedbush Says</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-apos-apos-unique-apos-135126701.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:49:38 +0000</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CoreWeave Bulls Face Off Against Short Sellers as Shares Spike</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/coreweave-bulls-face-off-against-134938414.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:47:00 +0000</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Stock Market News for May 23, 2025</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/stock-market-news-may-23-134700451.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:41:11 +0000</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1.지수</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>^IXIC</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Nasdaq, Dow, S&amp;P 500 sink after Trump's EU tariff threats</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nasdaq-dow-p-500-sink-134111023.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:25:55 +0000</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Trump plots ‘Manhattan Project 2’ in nuclear power push</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/trump-plots-manhattan-project-2-132555329.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 13:14:33 +0000</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Trump's FTC walks away from Microsoft-Activision merger fight started by Biden</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trumps-ftc-walks-away-from-microsoft-activision-merger-fight-started-by-biden-131433987.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 12:38:02 +0000</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Google (Alphabet)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Cloud AI Today - NexAI Revolutionizes Campaign Strategy With Generative AI Integration</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/cloud-ai-today-nexai-revolutionizes-123802708.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 12:31:00 +0000</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Comprehensive AI Strategy Aids Palantir, Overvaluation Raises Concern</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/comprehensive-ai-strategy-aids-palantir-123100489.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 12:17:00 +0000</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Chevron vs. Petrobras: Is Either Oil Giant Worth Holding Onto Now?</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/chevron-vs-petrobras-either-oil-121700794.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 10:00:01 +0000</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Traders Wager $10 Billion on Chevron-Hess Deal Beating Exxon Case</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/traders-wager-10-billion-chevron-100001931.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 10:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1 No-Brainer Warren Buffett Dividend Stock to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/23/1-no-brainer-warren-buffett-dividend-stock-to-buy/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 08:16:49 +0000</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>State Department Tells Chevron to Leave Venezuela</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/state-department-tells-chevron-leave-081649881.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 04:36:17 +0000</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>3 High-Flying Stocks to Target This Week</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/3-high-flying-stocks-target-043617466.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Fri, 23 May 2025 03:09:53 +0000</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Dow Jones Futures: Market Bounce Fizzles; Supreme Court Shields Federal Reserve From Trump</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/f0cd5688-2d7d-3160-a9f8-1cf6949b168a/dow-jones-futures%3A-market.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 22:08:37 +0000</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>William Blair Reiterates Hold Rating on Palantir Technologies (PLTR) Stock</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/william-blair-reiterates-hold-rating-220837540.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 21:37:19 +0000</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Palantir (PLTR) Lands $1.3B Pentagon Win as AI Goes to War</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-pltr-lands-1-3b-213719986.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 21:25:12 +0000</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Palantir awarded $795M Army contract modification</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/palantir-awarded-795m-army-contract-212512951.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 18:14:42 +0000</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Big Tech Rally Broadens. Other Sectors Rise.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/90532536-b70c-3879-a2f0-88e90d242e8d/big-tech-rally-broadens..html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 16:34:28 +0000</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Palantir</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Billionaire Druckenmiller Dumps Nvidia and Palantir, Loads Up on TSMC</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/billionaire-druckenmiller-dumps-nvidia-palantir-163428934.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 14:02:27 +0000</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Turns Around As 10-Year Treasury Yield Retreats</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/3b2b44b8-cfaa-3735-87c7-6ff276b3eded/s%26p-500-turns-around-as.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 13:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>3 No-Brainer Dividend Stocks to Buy With $1,000 Right Now</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/22/3-no-brainer-dividend-stocks-to-buy-with-1000-now/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 07:05:00 +0000</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>3 No-Brainer High-Yield Energy Stocks to Buy With $500 Right Now</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/22/3-no-brainer-high-yield-energy-stocks-to-buy-with/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Thu, 22 May 2025 02:02:17 +0000</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Chevron Eyes Major Oil and Gas Assets in Indonesia</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/chevron-eyes-major-oil-gas-020217048.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 22:05:00 +0000</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Could Buying Occidental Petroleum Stock Today Set You Up for Life?</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/21/could-buying-occidental-petroleum-stock-today-set/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 21:53:38 +0000</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Trump to Extend Chevron’s License to Operate in Venezuela</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/trump-extend-chevron-license-operate-215338483.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 20:17:32 +0000</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Dow sinks 800 points as bond market starts to freak out over Trump’s tax bill</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2025/05/21/investing/us-stock-market-bonds?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 20:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>South Carolina State University Opens NuScale Power Energy Exploration (E2) Center™</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/south-carolina-state-university-opens-201500467.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 15:24:13 +0000</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Chevron shows interest in large oil and gas blocks in Indonesia</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.offshore-technology.com/news/chevron-interest-oil-and-gas-blocks-indonesia/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 15:19:32 +0000</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Stocks Are Struggling Across the Board. Then There’s Alphabet.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/bf79f89c-aece-3ce7-806d-77b177d66239/stocks-are-struggling-across.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 15:18:03 +0000</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Elliott wins two Board seats at Phillips 66, but full overhaul falls short</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/elliott-wins-two-board-seats-151803983.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 13:48:00 +0000</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Shell's Potential BP Buy: Strategic Scale or a Risky Gamble?</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/shells-potential-bp-buy-strategic-134800809.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 12:33:00 +0000</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Visa vs. AmEx: Which Payment Stock Has the Edge Now for Future Gains?</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/visa-vs-amex-payment-stock-123300609.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 10:21:00 +0000</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Chevron Eyes Return to Indonesia With Focus on Large Gas Reserves</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/chevron-eyes-return-indonesia-focus-102100082.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 09:38:16 +0000</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>These Six Charts Explain Why Bitcoin's Recent Move to Over $100K May Be More Durable Than January's Run</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.coindesk.com/markets/2025/05/21/these-six-charts-explain-why-bitcoin-s-recent-move-to-over-usd100k-may-be-more-durable-than-january-s-run?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 08:34:39 +0000</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Best credit card deals of the week, 21 May</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/best-credit-card-deals-093401129.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Wed, 21 May 2025 07:06:00 +0000</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>58% of Warren Buffett's $287 Billion Portfolio at Berkshire Hathaway Is Invested in Just 4 Unstoppable Stocks</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/21/58-warren-buffett-portfolio-invested-in-4-stocks/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Tue, 20 May 2025 23:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Chevron</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Big Oil Shrugs at $60 Crude—for Now</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/big-oil-shrugs-60-crude-230000380.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Tue, 20 May 2025 21:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Treasury auctions, dollar-cost averaging: Market Takeaways</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/treasury-auctions-dollar-cost-averaging-211500873.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tue, 20 May 2025 10:48:00 +0000</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Jamie Dimon’s Tariffs Warning Should Have Rocked Markets. Why He’s Being Ignored.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/6bed2f40-a142-3c55-ad99-b882976228e1/jamie-dimon%E2%80%99s-tariffs-warning.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tue, 20 May 2025 09:57:34 +0000</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Wall Street stocks slip, rising US Treasury yields in focus</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/us-stock-futures-edge-down-095734964.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 21:20:00 +0000</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Moody's downgrade, US dollar, bitcoin: Market Takeaways</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/moodys-downgrade-us-dollar-bitcoin-212000142.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 18:29:00 +0000</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Fed Officials Say Moody’s Downgrade Complicates Inflation Outlook</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/8170e7be-1b8a-3104-bd71-bab1957f3c2c/fed-officials-say-moody%E2%80%99s.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 17:22:44 +0000</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Stock Indexes All Positive as Investors Shake Off Moody's Downgrade</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/b2e64b4b-236b-31de-969d-0632d3eb934a/stock-indexes-all-positive-as.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 14:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Moody's Downgrades U.S. Rating: What's Next for S&amp;P 500 ETFs?</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/moodys-downgrades-u-rating-whats-140000079.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 12:28:00 +0000</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Capital One’s stock looks like a bargain following Discover acquisition</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/capital-ones-stock-looks-like-a-bargain-following-discover-acquisition-c4744850?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 09:11:00 +0000</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Amex offers virtual card to small businesses</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.paymentsdive.com/news/american-express-virtual-card-small-businesses-payments/748445/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 08:31:17 +0000</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Gold rises on safe haven appeal as Moody's downgrades US credit rating</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/gold-pound-dollar-oil-trade-deal-tariffs-083117362.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mon, 19 May 2025 02:08:00 +0000</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Stock futures, dollar fall after Moody’s strips U.S. of its top credit rating</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/investors-brace-for-reaction-after-moodys-strips-u-s-of-its-top-credit-rating-2bbe0b5d?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sun, 18 May 2025 15:37:00 +0000</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2 No-Brainer Warren Buffett Stocks to Buy Right Now</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/18/2-no-brainer-warren-buffett-stocks-to-buy-now/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sun, 18 May 2025 11:07:00 +0000</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>The U.S. Doesn’t Have a Perfect Credit Rating Anymore. Investors Shouldn’t Worry Yet.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/74984506-f9b6-37b3-a2f6-d10bf8452e4f/the-u.s.-doesn%E2%80%99t-have-a.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sat, 17 May 2025 22:14:00 +0000</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>The Best Warren Buffett Stocks to Buy With $500 Right Now</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/17/best-warren-buffett-stocks-buy-1000-right-now/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sat, 17 May 2025 22:10:00 +0000</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Warren Buffett Remains Optimistic About America. Here Are Top American Companies Worth Investing In.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/17/warren-buffett-remains-optimistic-about-america/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Fri, 16 May 2025 16:08:00 +0000</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AmEx is Holding Strong: But is That Enough for Investors Right Now?</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/amex-holding-strong-enough-investors-160800820.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Fri, 16 May 2025 12:02:02 +0000</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Analysts Have Lowered Expectations For NuScale Power Corporation (NYSE:SMR) After Its Latest Results</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/analysts-lowered-expectations-nuscale-power-120202417.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Fri, 16 May 2025 09:33:37 +0000</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Gold prices fall as easing trade concerns dampen appeal</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/gold-trump-trade-tariffs-oil-pound-093337108.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Thu, 15 May 2025 21:08:58 +0000</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Trading Day: Inflation - calm before the storm?</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/trading-day-inflation-calm-storm-210858476.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Thu, 15 May 2025 13:46:25 +0000</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Stocks Open Lower as Wall Street Digests a Slew of Economic Reports</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/935fb8a0-65f5-399a-936a-255ecadded68/stocks-open-lower-as-wall.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Thu, 15 May 2025 08:58:44 +0000</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Oil prices tumble 3% on potential for US-Iran deal and higher inventories</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/oil-price-us-iran-nuclear-deal-gold-pound-085844277.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 20:25:00 +0000</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Berkshire May Have Sold Bank Stocks. These Are the Candidates.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/66a4e2e0-bc51-3a8c-95f4-6f335c813179/berkshire-may-have-sold-bank.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 19:12:00 +0000</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>^TNX</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>10-Year Treasury Yield (^TNX)</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Has the stock market’s epic rebound come too far, too fast? What investors chasing the rally should keep in mind.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/has-the-epic-rebound-in-u-s-stocks-come-too-far-too-fast-what-investors-chasing-the-rally-should-keep-in-mind-60f0148a?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 15:52:33 +0000</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>What comes next for the US dollar as Korean won gains advantage?</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/comes-next-us-dollar-korean-155233043.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 10:19:05 +0000</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>NuScale Power First Quarter 2025 Earnings: Beats Expectations</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-first-quarter-2025-101905645.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 10:01:00 +0000</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>What the US dollar and Treasury yields signal for stocks</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/us-dollar-treasury-yields-signal-100100268.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Wed, 14 May 2025 09:19:39 +0000</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Oil dips after rally fuelled by US-China tariff truce</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/gold-pound-dollar-oil-trade-deal-tariffs-091939090.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 21:18:00 +0000</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Stocks near record highs, US dollar &amp; yields: Market Takeaways</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/stocks-near-record-highs-us-211800752.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 20:07:13 +0000</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Nasdaq leads, Dow dragged following April inflation data</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/nasdaq-leads-dow-dragged-following-200713706.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 16:20:06 +0000</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Surging Earnings Estimates Signal Upside for Centrus Energy (LEU) Stock</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/surging-earnings-estimates-signal-upside-162006534.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 13:55:15 +0000</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Wall Street Analysts Think Centrus Energy (LEU) Could Surge 56.61%: Read This Before Placing a Bet</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/wall-street-analysts-think-centrus-135515021.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 13:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>These 4 Warren Buffett Stocks Make Up Over 57% of Berkshire Hathaway's $277 Billion Portfolio</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/13/these-4-warren-buffett-stocks-make-up-over-57-of/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 10:30:56 +0000</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>'Buy America' is back, but use US rally to diversify abroad</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/buy-america-back-us-rally-103056753.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tue, 13 May 2025 08:56:04 +0000</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Gold prices rise as investors 'value-buying' after US-China tariff truce</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/gold-us-china-tariff-truce-pound-oil-085604304.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 21:15:05 +0000</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Risk on trade, US dollar and yields, bitcoin: Market Takeaways</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/risk-trade-us-dollar-yields-211505147.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 20:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>NuScale Power Reports First Quarter 2025 Results</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-reports-first-quarter-201500238.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 20:06:00 +0000</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Are Options Traders Betting on a Big Move in American Express (AXP) Stock?</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/options-traders-betting-big-move-200600104.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 20:00:36 +0000</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Stock market today: Dow jumps 1,100 points, S&amp;P 500 and Nasdaq surge after US-China tariff rollback triggers buying spree</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/live/stock-market-today-dow-jumps-1100-points-sp-500-and-nasdaq-surge-after-us-china-tariff-rollback-triggers-buying-spree-200036073.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 13:09:39 +0000</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Dollar Index (DX-Y.NYB)</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>US-China trade truce, April CPI, drug prices: 3 Things</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/video/us-china-trade-truce-april-130939738.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mon, 12 May 2025 08:10:00 +0000</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2 No-Brainer Dividend Stocks to Buy With $2,000 Right Now</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/12/2-no-brainer-dividend-stocks-to-buy-with-2000-righ/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sat, 10 May 2025 18:41:00 +0000</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>The Best Warren Buffett Stock to Invest $500 in Right Now</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/10/the-best-warren-buffett-stock-to-invest-500-in-rig/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Fri, 09 May 2025 15:40:05 +0000</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>IX vs. AXP: Which Stock Is the Better Value Option?</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ix-vs-axp-stock-better-154005989.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Fri, 09 May 2025 13:48:05 +0000</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>With 46% ownership, NuScale Power Corporation (NYSE:SMR) has piqued the interest of institutional investors</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/46-ownership-nuscale-power-corporation-134805561.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Fri, 09 May 2025 12:40:45 +0000</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Why Centrus Energy Corp. (LEU) is Up This Week</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-centrus-energy-corp-leu-124045280.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Fri, 09 May 2025 11:52:14 +0000</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Why Centrus Energy Stock Was Soaring This Week</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/05/09/why-centrus-energy-stock-was-soaring-this-week/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Fri, 09 May 2025 07:14:30 +0000</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Centrus Energy Corp (LEU) Q1 2025 Earnings Call Highlights: Strong Financial Performance and ...</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-energy-corp-leu-q1-071430766.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Thu, 08 May 2025 22:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Centrus Energy to Participate in Upcoming Investor Conferences</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-energy-participate-upcoming-investor-220000233.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Wed, 07 May 2025 23:10:03 +0000</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Centrus Energy Corp. (LEU) Q1 Earnings and Revenues Beat Estimates</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-energy-corp-leu-q1-231003993.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Wed, 07 May 2025 21:16:00 +0000</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Centrus Reports First Quarter 2025 Results</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-reports-first-quarter-2025-211600398.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tue, 06 May 2025 16:11:00 +0000</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Should You Buy, Hold or Sell Energy Fuels Stock Ahead of Q1 Earnings?</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/buy-hold-sell-energy-fuels-161100828.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Tue, 06 May 2025 10:50:00 +0000</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>NuScale Power to Participate in Upcoming Investor Conferences</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-participate-upcoming-investor-105000297.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mon, 05 May 2025 22:55:02 +0000</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Ero Copper Corp. (ERO) Q1 Earnings Beat Estimates</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ero-copper-corp-ero-q1-225502896.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Wed, 30 Apr 2025 21:28:02 +0000</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Gold soars, tech stumbles: The market story of Trump's first 100 days in 1 chart</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/gold-soars-tech-stumbles-the-market-story-of-trumps-first-100-days-in-1-chart-212802947.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Wed, 30 Apr 2025 08:55:00 +0000</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Gold Has Fallen Back from Record Highs. The Fear Trade Could Send It Higher Again.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/cf00271a-380b-3651-8f01-3f56ad7590df/gold-has-fallen-back-from.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Tue, 29 Apr 2025 12:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Time to Shun Gold &amp; Buy These High-Dividend Equity ETFs?</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/time-shun-gold-buy-high-120000097.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Sat, 26 Apr 2025 09:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Better Buy Now: Gold at $3,500 or an S&amp;P 500 Index Fund?</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/04/26/better-buy-now-gold-or-an-sp-500-index-fund/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Fri, 25 Apr 2025 19:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>IVV, VOO Help Global ETF Inflows Reach New Heights in Q1</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/news/ivv-voo-help-global-etf-inflows-reach-new-heights-q1?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Fri, 25 Apr 2025 18:22:00 +0000</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Gold Has Been Pushed to ‘Extremes.’ What to Do Now.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/a8dd9283-09d1-3d50-af33-e884195611ef/gold-has-been-pushed-to.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Fri, 25 Apr 2025 14:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Meet the Historically Boring Asset That Has Risen 610% Since 2000 and Crushed the S&amp;P 500 Index</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2025/04/25/meet-the-historically-boring-asset-that-has-risen/?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Fri, 25 Apr 2025 12:57:00 +0000</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>How to Invest in Gold</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/f77d8490-0f7e-3d17-9692-a62b4d3f1266/how-to-invest-in-gold.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Thu, 24 Apr 2025 21:01:00 +0000</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Centrus to Webcast Conference Call on May 8 at 8:30 a.m. ET</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-webcast-conference-call-may-210100777.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Thu, 24 Apr 2025 13:10:02 +0000</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Freeport-McMoRan (FCX) Meets Q1 Earnings Estimates</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/freeport-mcmoran-fcx-meets-q1-131002059.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Wed, 23 Apr 2025 23:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>$1.2 Billion Pulled From Top Gold ETF as Markets Rally</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/daily-etf-flows/12-billion-pulled-top-gold-etf-markets-rally?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Wed, 23 Apr 2025 16:41:35 +0000</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Centrus Energy Corp. (LEU): Among the Best Uranium Stocks to Invest in According to Analysts</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/centrus-energy-corp-leu-among-164135933.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Wed, 23 Apr 2025 13:17:00 +0000</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>The Zacks Analyst Blog Highlights GLD, IAUM, ALDM and IAU</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/zacks-analyst-blog-highlights-gld-131700070.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Tue, 22 Apr 2025 17:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Gold ETFs Surge on Safe-Haven Demand: Is a Pullback Coming?</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/gold-etfs-surge-safe-haven-170000405.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Tue, 22 Apr 2025 15:00:00 +0000</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>5 ETFs Scaling New Highs Amid Market Turmoil</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/5-etfs-scaling-highs-amid-150000033.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Mon, 21 Apr 2025 23:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Equity ETFs Lead Inflows, but Investors Still Seek Safety</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/daily-etf-flows/equity-etfs-lead-inflows-investors-still-seek-safety?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Mon, 21 Apr 2025 20:31:00 +0000</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Gold Soars: Should Investors Chase?</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/gold-soars-investors-chase-203100888.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Mon, 21 Apr 2025 16:32:42 +0000</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>GLD</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Gold ETF (SPDR Gold Shares)</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Traders Stampede Into Bullish Bets on Gold</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/m/de0cc442-d0d6-3b5b-9646-36238b3cee26/traders-stampede-into-bullish.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Wed, 16 Apr 2025 15:36:00 +0000</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>UUUU Stock Declines 28% YTD: Buying Opportunity or Red Flag?</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/uuuu-stock-declines-28-ytd-153600136.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sun, 13 Apr 2025 18:52:32 +0000</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>LEU</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Centrus Energy</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Why Centrus Energy Corp. (LEU) Stock is Gaining This Week</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-centrus-energy-corp-leu-185232992.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Thu, 10 Apr 2025 10:50:00 +0000</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>NuScale Power to Hold First Quarter 2025 Earnings Conference Call</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-hold-first-quarter-105000981.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Fri, 04 Apr 2025 18:33:38 +0000</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>NuScale Power (NYSE:SMR) Expands Education Efforts With New E2 Centers</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-nyse-smr-expands-183338222.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Wed, 02 Apr 2025 20:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>University of Nevada, Las Vegas Opens NuScale Power Energy Exploration (E2) Center™</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/university-nevada-las-vegas-opens-203000625.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Tue, 25 Mar 2025 10:52:34 +0000</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>We're Not Worried About NuScale Power's (NYSE:SMR) Cash Burn</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/were-not-worried-nuscale-powers-105234340.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Mon, 24 Mar 2025 20:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Rensselaer Polytechnic Institute Opens NuScale Power Energy Exploration Center</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/rensselaer-polytechnic-institute-opens-nuscale-201500130.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tue, 04 Mar 2025 17:57:32 +0000</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>3.종목</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>NuScale Power</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>NuScale Power (NYSE:SMR) Boosts Sales to US$37M Despite US$137M Net Loss in 2024</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/nuscale-power-nyse-smr-boosts-175732752.html?.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Fri, 07 Jun 2024 22:17:30 +0000</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2.지표</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>IEF</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>10-Year Treasury ETF (IEF)</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>TLT, Other Bond ETFs, Tumble After Solid Jobs Report</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>http://www.etf.com/sections/news/tlt-other-bond-etfs-tumble-after-solid-jobs-report?utm_source=yahoo-finance&amp;utm_medium=rss&amp;utm_campaign=yahoo-finance-rss&amp;.tsrc=rss</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
